--- a/Data/树/专家经验树.xlsx
+++ b/Data/树/专家经验树.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB1C864-C903-4486-8FBE-A5E022EBD733}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{488B79F1-9819-4D2A-B3E3-EF0323218180}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7152" yWindow="876" windowWidth="20760" windowHeight="16752" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,10 +41,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>Potential Descriptors in buck</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>composition</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -602,6 +598,10 @@
   </si>
   <si>
     <t>Mechanical strength</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExpertRoot</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
@@ -1019,7 +1019,7 @@
   <dimension ref="A1:F108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B66"/>
+      <selection activeCell="A2" sqref="A2:A108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1050,19 +1050,19 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" t="s">
         <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1071,7 +1071,7 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1080,7 +1080,7 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1089,7 +1089,7 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1098,7 +1098,7 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1107,7 +1107,7 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1115,10 +1115,10 @@
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
         <v>16</v>
-      </c>
-      <c r="E8" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1127,7 +1127,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1136,7 +1136,7 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1145,7 +1145,7 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1154,7 +1154,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1163,7 +1163,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1171,10 +1171,10 @@
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" t="s">
         <v>23</v>
-      </c>
-      <c r="E14" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1183,7 +1183,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1192,7 +1192,7 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1201,7 +1201,7 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1210,7 +1210,7 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1219,7 +1219,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1227,10 +1227,10 @@
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" t="s">
         <v>30</v>
-      </c>
-      <c r="E20" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1239,7 +1239,7 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1248,7 +1248,7 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1257,7 +1257,7 @@
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1266,7 +1266,7 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1275,7 +1275,7 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1283,10 +1283,10 @@
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" t="s">
         <v>37</v>
-      </c>
-      <c r="E26" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1295,7 +1295,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1304,7 +1304,7 @@
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1313,7 +1313,7 @@
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1322,7 +1322,7 @@
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1331,7 +1331,7 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1340,7 +1340,7 @@
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1349,7 +1349,7 @@
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1357,10 +1357,10 @@
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E34" t="s">
         <v>46</v>
-      </c>
-      <c r="E34" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1369,7 +1369,7 @@
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1378,7 +1378,7 @@
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1387,7 +1387,7 @@
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1396,7 +1396,7 @@
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1405,7 +1405,7 @@
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1413,10 +1413,10 @@
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E40" t="s">
         <v>53</v>
-      </c>
-      <c r="E40" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1425,7 +1425,7 @@
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1434,7 +1434,7 @@
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -1443,7 +1443,7 @@
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -1452,7 +1452,7 @@
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -1461,20 +1461,20 @@
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D46" t="s">
         <v>60</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>61</v>
-      </c>
-      <c r="E46" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -1482,10 +1482,10 @@
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E47" t="s">
         <v>63</v>
-      </c>
-      <c r="E47" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -1494,7 +1494,7 @@
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -1503,7 +1503,7 @@
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -1512,7 +1512,7 @@
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -1521,7 +1521,7 @@
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -1530,7 +1530,7 @@
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -1539,7 +1539,7 @@
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -1548,7 +1548,7 @@
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -1557,7 +1557,7 @@
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -1566,7 +1566,7 @@
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -1575,7 +1575,7 @@
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -1584,17 +1584,17 @@
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D59" t="s">
         <v>76</v>
-      </c>
-      <c r="D59" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -1602,7 +1602,7 @@
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -1610,10 +1610,10 @@
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E61" t="s">
         <v>79</v>
-      </c>
-      <c r="E61" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -1622,20 +1622,20 @@
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="E63" t="s">
         <v>83</v>
-      </c>
-      <c r="E63" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -1644,7 +1644,7 @@
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -1652,7 +1652,7 @@
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -1660,22 +1660,22 @@
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="D67" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="E67" t="s">
         <v>90</v>
-      </c>
-      <c r="E67" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -1684,7 +1684,7 @@
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -1693,7 +1693,7 @@
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -1701,13 +1701,13 @@
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E70" s="2" t="s">
+      <c r="F70" t="s">
         <v>95</v>
-      </c>
-      <c r="F70" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -1717,7 +1717,7 @@
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
       <c r="F71" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -1727,7 +1727,7 @@
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
       <c r="F72" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -1737,7 +1737,7 @@
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
       <c r="F73" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -1747,7 +1747,7 @@
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
       <c r="F74" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -1757,7 +1757,7 @@
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
       <c r="F75" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -1766,7 +1766,7 @@
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -1775,7 +1775,7 @@
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -1783,10 +1783,10 @@
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E78" t="s">
         <v>104</v>
-      </c>
-      <c r="E78" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -1795,7 +1795,7 @@
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -1803,10 +1803,10 @@
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E80" t="s">
         <v>107</v>
-      </c>
-      <c r="E80" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -1815,7 +1815,7 @@
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -1824,7 +1824,7 @@
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
       <c r="E82" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -1833,7 +1833,7 @@
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -1842,7 +1842,7 @@
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -1851,7 +1851,7 @@
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -1859,10 +1859,10 @@
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E86" t="s">
         <v>114</v>
-      </c>
-      <c r="E86" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -1871,7 +1871,7 @@
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
       <c r="E87" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -1880,7 +1880,7 @@
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -1889,10 +1889,10 @@
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F89" t="s">
         <v>118</v>
-      </c>
-      <c r="F89" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -1902,7 +1902,7 @@
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
       <c r="F90" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -1910,7 +1910,7 @@
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
       <c r="D91" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -1918,20 +1918,20 @@
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
       <c r="D92" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D93" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D93" s="2" t="s">
+      <c r="E93" t="s">
         <v>124</v>
-      </c>
-      <c r="E93" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -1940,7 +1940,7 @@
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -1949,7 +1949,7 @@
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -1958,7 +1958,7 @@
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -1967,7 +1967,7 @@
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
       <c r="E97" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -1975,10 +1975,10 @@
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
       <c r="D98" t="s">
+        <v>129</v>
+      </c>
+      <c r="E98" t="s">
         <v>130</v>
-      </c>
-      <c r="E98" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -1986,13 +1986,13 @@
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E99" s="2" t="s">
+      <c r="F99" t="s">
         <v>133</v>
-      </c>
-      <c r="F99" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -2002,7 +2002,7 @@
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
       <c r="F100" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -2012,7 +2012,7 @@
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
       <c r="F101" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -2022,7 +2022,7 @@
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
       <c r="F102" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -2031,7 +2031,7 @@
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
       <c r="E103" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -2040,28 +2040,28 @@
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
       <c r="E104" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" t="s">
+        <v>139</v>
+      </c>
+      <c r="C105" t="s">
         <v>140</v>
-      </c>
-      <c r="C105" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C106" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="D106" t="s">
         <v>143</v>
-      </c>
-      <c r="D106" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -2069,7 +2069,7 @@
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
       <c r="D107" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -2077,26 +2077,11 @@
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
       <c r="D108" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="D14:D19"/>
-    <mergeCell ref="D93:D97"/>
-    <mergeCell ref="D99:D104"/>
-    <mergeCell ref="E70:E75"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="E99:E102"/>
-    <mergeCell ref="D70:D77"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="D80:D85"/>
-    <mergeCell ref="D86:D90"/>
-    <mergeCell ref="D40:D45"/>
-    <mergeCell ref="D47:D58"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="D67:D69"/>
     <mergeCell ref="D2:D7"/>
     <mergeCell ref="D20:D25"/>
     <mergeCell ref="D26:D33"/>
@@ -2113,6 +2098,21 @@
     <mergeCell ref="C67:C92"/>
     <mergeCell ref="C93:C104"/>
     <mergeCell ref="D8:D13"/>
+    <mergeCell ref="D14:D19"/>
+    <mergeCell ref="D93:D97"/>
+    <mergeCell ref="D99:D104"/>
+    <mergeCell ref="E70:E75"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="E99:E102"/>
+    <mergeCell ref="D70:D77"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="D80:D85"/>
+    <mergeCell ref="D86:D90"/>
+    <mergeCell ref="D40:D45"/>
+    <mergeCell ref="D47:D58"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="D67:D69"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
